--- a/app/seeds/level_up.xlsx
+++ b/app/seeds/level_up.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>idx_period</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>整数値</t>
     <rPh sb="0" eb="3">
       <t>セイスウチ</t>
@@ -189,13 +185,6 @@
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主キー</t>
-    <rPh sb="0" eb="1">
-      <t>シュ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -616,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -632,12 +621,12 @@
     <col min="7" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,7 +642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -661,12 +650,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -685,93 +674,81 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>0</v>
       </c>

--- a/app/seeds/level_up.xlsx
+++ b/app/seeds/level_up.xlsx
@@ -32,9 +32,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>整数範囲テーブル</t>
-  </si>
-  <si>
     <t>名前</t>
   </si>
   <si>
@@ -185,6 +182,10 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -608,7 +609,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -631,102 +632,102 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -734,18 +735,18 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/app/seeds/level_up.xlsx
+++ b/app/seeds/level_up.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -186,6 +186,17 @@
   </si>
   <si>
     <t>マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード可</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -196,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +218,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -257,8 +286,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -276,8 +307,10 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -609,7 +642,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -651,6 +684,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>7</v>
